--- a/experiments/compression/results.2017/RabbitRes.xlsx
+++ b/experiments/compression/results.2017/RabbitRes.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\phdThesis\experiments\compression\results.2017\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="270" windowWidth="22995" windowHeight="9405" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="270" windowWidth="22995" windowHeight="9405" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -157,7 +162,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -284,11 +289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98355456"/>
-        <c:axId val="98362112"/>
+        <c:axId val="329919400"/>
+        <c:axId val="329919792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98355456"/>
+        <c:axId val="329919400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -315,7 +320,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -332,12 +336,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98362112"/>
+        <c:crossAx val="329919792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98362112"/>
+        <c:axId val="329919792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,7 +363,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -376,7 +379,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98355456"/>
+        <c:crossAx val="329919400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -396,7 +399,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -571,11 +574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99604352"/>
-        <c:axId val="99615104"/>
+        <c:axId val="329917048"/>
+        <c:axId val="329920968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99604352"/>
+        <c:axId val="329917048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -598,7 +601,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -615,12 +617,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99615104"/>
+        <c:crossAx val="329920968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99615104"/>
+        <c:axId val="329920968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,7 +644,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -659,7 +660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99604352"/>
+        <c:crossAx val="329917048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -703,7 +704,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -870,11 +871,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99755136"/>
-        <c:axId val="99757440"/>
+        <c:axId val="329918224"/>
+        <c:axId val="329920576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99755136"/>
+        <c:axId val="329918224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +897,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -913,12 +913,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99757440"/>
+        <c:crossAx val="329920576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99757440"/>
+        <c:axId val="329920576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -940,7 +940,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -957,7 +956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99755136"/>
+        <c:crossAx val="329918224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1001,7 +1000,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1180,11 +1179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99791232"/>
-        <c:axId val="99793536"/>
+        <c:axId val="329915480"/>
+        <c:axId val="329920184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99791232"/>
+        <c:axId val="329915480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,7 +1205,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1223,12 +1221,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99793536"/>
+        <c:crossAx val="329920184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99793536"/>
+        <c:axId val="329920184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0000000000000026E-4"/>
@@ -1251,7 +1249,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
@@ -1268,7 +1265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99791232"/>
+        <c:crossAx val="329915480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1312,7 +1309,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1511,11 +1508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129331968"/>
-        <c:axId val="129333888"/>
+        <c:axId val="329917440"/>
+        <c:axId val="329914304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129331968"/>
+        <c:axId val="329917440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1556,12 +1553,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129333888"/>
+        <c:crossAx val="329914304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129333888"/>
+        <c:axId val="329914304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,7 +1597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129331968"/>
+        <c:crossAx val="329917440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1650,6 +1647,1109 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FOLProM, Peng et al.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.2000000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000002E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BIO-Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.525224499537576E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28246666069990156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2885527611205585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94955100092484856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94955100092484856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1884602762612251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9584713147766939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2954443748321847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.746740654554133</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.245681553745637</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.245681553745637</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.245681553745637</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.245681553745637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.826247799755363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.9430000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.794E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7830000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2409999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2409999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9700000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.54E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.25E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Plane-Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$23:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.38628837375816699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0253587517527372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.681225573555297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.8200000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7300000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4200000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357864560"/>
+        <c:axId val="357870048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357864560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357870048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="357870048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9.000000000000003E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357864560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1704,7 +2804,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1823,7 +2923,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9277786" cy="6049466"/>
+    <xdr:ext cx="9299408" cy="6065921"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1843,6 +2943,41 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1889,7 +3024,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1924,7 +3059,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2135,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,8 +3387,8 @@
         <v>5.1999999999999997E-5</v>
       </c>
       <c r="I6" s="7">
-        <f>(E6*1)/$B$2</f>
-        <v>6.90653062442197E-3</v>
+        <f>(E6*8)/$B$2</f>
+        <v>5.525224499537576E-2</v>
       </c>
       <c r="L6" s="3">
         <v>2.1000000000000001E-4</v>
@@ -3027,6 +4162,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/experiments/compression/results.2017/RabbitRes.xlsx
+++ b/experiments/compression/results.2017/RabbitRes.xlsx
@@ -17,9 +17,10 @@
     <sheet name="Chart3" sheetId="6" r:id="rId3"/>
     <sheet name="Chart4" sheetId="7" r:id="rId4"/>
     <sheet name="Chart5" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
+    <sheet name="ChartX" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -35,9 +36,6 @@
   </si>
   <si>
     <t>BPV</t>
-  </si>
-  <si>
-    <t>BIO-Tree</t>
   </si>
   <si>
     <t>Peng et al.</t>
@@ -98,6 +96,9 @@
   </si>
   <si>
     <t>mse</t>
+  </si>
+  <si>
+    <t>SOT</t>
   </si>
 </sst>
 </file>
@@ -188,7 +189,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIO-Tree</c:v>
+                  <c:v>SOT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -289,11 +290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329919400"/>
-        <c:axId val="329919792"/>
+        <c:axId val="320527648"/>
+        <c:axId val="320530784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329919400"/>
+        <c:axId val="320527648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -336,12 +337,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329919792"/>
+        <c:crossAx val="320530784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329919792"/>
+        <c:axId val="320530784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -379,7 +380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329919400"/>
+        <c:crossAx val="320527648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -574,11 +575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329917048"/>
-        <c:axId val="329920968"/>
+        <c:axId val="320531568"/>
+        <c:axId val="320528040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329917048"/>
+        <c:axId val="320531568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -617,12 +618,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329920968"/>
+        <c:crossAx val="320528040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329920968"/>
+        <c:axId val="320528040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329917048"/>
+        <c:crossAx val="320531568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -730,7 +731,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIO-Tree</c:v>
+                  <c:v>SOT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -871,11 +872,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329918224"/>
-        <c:axId val="329920576"/>
+        <c:axId val="320528824"/>
+        <c:axId val="320529216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329918224"/>
+        <c:axId val="320528824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -913,12 +914,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329920576"/>
+        <c:crossAx val="320529216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329920576"/>
+        <c:axId val="320529216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329918224"/>
+        <c:crossAx val="320528824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1026,7 +1027,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIO-Tree</c:v>
+                  <c:v>SOT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1179,11 +1180,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329915480"/>
-        <c:axId val="329920184"/>
+        <c:axId val="320530392"/>
+        <c:axId val="321914160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329915480"/>
+        <c:axId val="320530392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,12 +1222,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329920184"/>
+        <c:crossAx val="321914160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329920184"/>
+        <c:axId val="321914160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.0000000000000026E-4"/>
@@ -1265,7 +1266,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329915480"/>
+        <c:crossAx val="320530392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1508,11 +1509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329917440"/>
-        <c:axId val="329914304"/>
+        <c:axId val="321913768"/>
+        <c:axId val="321914944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329917440"/>
+        <c:axId val="321913768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1536,7 +1537,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1553,12 +1553,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329914304"/>
+        <c:crossAx val="321914944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329914304"/>
+        <c:axId val="321914944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1580,7 +1580,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1597,7 +1596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329917440"/>
+        <c:crossAx val="321913768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1684,6 +1683,664 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.2000000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0000000000000002E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.525224499537576E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28246666069990156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2885527611205585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94955100092484856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94955100092484856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1884602762612251</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9584713147766939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2954443748321847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.746740654554133</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.245681553745637</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.245681553745637</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.245681553745637</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.245681553745637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.826247799755363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.9430000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.794E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7830000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2409999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2409999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9700000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.54E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3100000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.25E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Plane-Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$23:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.38628837375816699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0253587517527372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.681225573555297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.8200000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7300000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4200000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="321920040"/>
+        <c:axId val="321917296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="321920040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="4000"/>
+                  <a:t>Bit-rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="4000" baseline="0"/>
+                  <a:t> (BPV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="4000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321917296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="321917296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000003E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="4000"/>
+                  <a:t>Mean Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.6964846607288874E-3"/>
+              <c:y val="0.19013672454123151"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="321920040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43524568650230194"/>
+          <c:y val="1.0438671630481323E-2"/>
+          <c:w val="0.55655759218622258"/>
+          <c:h val="0.52514776134154784"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FOLProM, Peng et al.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -1772,7 +2429,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BIO-Tree</c:v>
+                  <c:v>SOT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1982,7 +2639,6 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1990,31 +2646,77 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357864560"/>
-        <c:axId val="357870048"/>
+        <c:axId val="321919256"/>
+        <c:axId val="321915336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357864560"/>
+        <c:axId val="321919256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bit-rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (BPV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2052,32 +2754,81 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357870048"/>
+        <c:crossAx val="321915336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357870048"/>
+        <c:axId val="321915336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9.000000000000003E-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Mean Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2357723577235773E-2"/>
+              <c:y val="0.36168479203181114"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2115,7 +2866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357864560"/>
+        <c:crossAx val="321919256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2128,9 +2879,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:legendPos val="r"/>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2236,7 +2986,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2808,6 +4114,18 @@
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -2947,6 +4265,33 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3270,8 +4615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3284,10 +4629,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M1" s="3"/>
     </row>
@@ -3302,13 +4647,13 @@
         <v>0.12245300000000001</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>2</v>
@@ -3316,7 +4661,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G4" s="4"/>
       <c r="L4" s="3">
@@ -3328,31 +4673,31 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="I5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" s="3">
         <v>3.8999999999999999E-4</v>
@@ -3872,7 +5217,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3892,25 +5237,25 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="G22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22" s="4"/>
     </row>
